--- a/teste.xlsx
+++ b/teste.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\Python\autoGuiTeste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desenvolvimento\python\acoesPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88144448-754B-4F7A-8E29-54F282436F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA760F-D3EA-4485-AC07-38F0FD320EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99F6AF2C-3131-4E47-B6BB-65DC3C4AC8F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Codigo</t>
   </si>
@@ -37,6 +48,12 @@
   </si>
   <si>
     <t>BTC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>CAD</t>
   </si>
 </sst>
 </file>
@@ -92,7 +109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -108,7 +125,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -120,7 +137,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -137,7 +154,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -167,12 +184,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -202,6 +236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,11 +404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111BAF9E-2662-4D44-940C-5758FF0A13E3}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +433,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>